--- a/ActualizacionDocente/XLSX/plantillaIndicadores.xlsx
+++ b/ActualizacionDocente/XLSX/plantillaIndicadores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Residencia\Pruebas\pruebaLogin\XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Residencia\ActualizacionDocente\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2EFFC4-919A-4D57-BCC7-0BBDC7B88CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B54793-FE7B-4877-96A2-1763ACBAD60E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0C8322C2-4061-4828-B4CE-DCAA2CEACEC9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>INSTITUTO TECNOLÓGICO DE DURANGO</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Función Administrativa</t>
   </si>
   <si>
-    <t>Indicadores de Participantes del Curso</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
@@ -115,13 +112,19 @@
   </si>
   <si>
     <t>Totales</t>
+  </si>
+  <si>
+    <t>A continuación se muestran los indicadores totales por curso. (Nota: en caso de que un docente participe en más de un curso se consiera le considera como una persona  independiente en cada curso)</t>
+  </si>
+  <si>
+    <t>Indicadores de Participantes Aprobados del Curso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +158,19 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -386,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -415,6 +431,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,18 +482,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989087CA-2E46-4869-A6DD-412CC81B694B}">
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,211 +892,197 @@
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="11"/>
+    </row>
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="U9" s="10"/>
-    </row>
-    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1098,7 +1107,7 @@
     </row>
     <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1123,7 +1132,7 @@
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1146,9 +1155,9 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1173,7 +1182,7 @@
     </row>
     <row r="17" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1196,9 +1205,9 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1210,9 +1219,9 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="7"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1223,7 +1232,7 @@
     </row>
     <row r="19" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1248,7 +1257,7 @@
     </row>
     <row r="20" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1260,9 +1269,9 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="7"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1273,7 +1282,7 @@
     </row>
     <row r="21" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1298,7 +1307,7 @@
     </row>
     <row r="22" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1323,7 +1332,7 @@
     </row>
     <row r="23" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1348,7 +1357,7 @@
     </row>
     <row r="24" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1373,7 +1382,7 @@
     </row>
     <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1398,7 +1407,7 @@
     </row>
     <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1423,7 +1432,7 @@
     </row>
     <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1448,7 +1457,7 @@
     </row>
     <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1473,7 +1482,7 @@
     </row>
     <row r="29" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1498,7 +1507,7 @@
     </row>
     <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1523,7 +1532,7 @@
     </row>
     <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1548,7 +1557,7 @@
     </row>
     <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1573,7 +1582,7 @@
     </row>
     <row r="33" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1598,7 +1607,7 @@
     </row>
     <row r="34" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1623,7 +1632,7 @@
     </row>
     <row r="35" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1648,7 +1657,7 @@
     </row>
     <row r="36" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1673,7 +1682,7 @@
     </row>
     <row r="37" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1698,7 +1707,7 @@
     </row>
     <row r="38" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1723,7 +1732,7 @@
     </row>
     <row r="39" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1748,7 +1757,7 @@
     </row>
     <row r="40" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1773,7 +1782,7 @@
     </row>
     <row r="41" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1798,7 +1807,7 @@
     </row>
     <row r="42" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1823,7 +1832,7 @@
     </row>
     <row r="43" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1848,7 +1857,7 @@
     </row>
     <row r="44" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1873,7 +1882,7 @@
     </row>
     <row r="45" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1898,7 +1907,7 @@
     </row>
     <row r="46" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1923,7 +1932,7 @@
     </row>
     <row r="47" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1948,7 +1957,7 @@
     </row>
     <row r="48" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1973,7 +1982,7 @@
     </row>
     <row r="49" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1998,7 +2007,7 @@
     </row>
     <row r="50" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2022,31 +2031,79 @@
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="9"/>
-    </row>
-    <row r="59" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A51" s="5">
+        <v>39</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+    </row>
+    <row r="52" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>40</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+    </row>
+    <row r="53" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+    </row>
     <row r="61" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2066,19 +2123,22 @@
     <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:U9"/>
+  <mergeCells count="12">
+    <mergeCell ref="T11:U11"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F3:L5"/>
     <mergeCell ref="F2:L2"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="Q11:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
